--- a/users.xlsx
+++ b/users.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
@@ -503,7 +503,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>66.3</v>
+        <v>75.2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.1</v>
       </c>
     </row>
     <row r="3">
@@ -516,6 +519,21 @@
         <is>
           <t>anu</t>
         </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>chaitu_03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>41.9</v>
       </c>
     </row>
   </sheetData>
